--- a/jpcore-r4/feature/swg3-医療機関コード説明見直し/StructureDefinition-jp-organization.xlsx
+++ b/jpcore-r4/feature/swg3-医療機関コード説明見直し/StructureDefinition-jp-organization.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2020" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2020" uniqueCount="362">
   <si>
     <t>Property</t>
   </si>
@@ -469,13 +469,13 @@
 </t>
   </si>
   <si>
-    <t>点数表コード１桁（医科１、歯科３）を表現するExtension【詳細参照】</t>
+    <t>点数表コード１桁（医科１、歯科３、調剤４、訪問看護ステーション６）を表現するExtension【詳細参照】</t>
   </si>
   <si>
     <t>点数表コード１桁（医科１、歯科３）表現するためのExtension。 JP Core Organizationプロファイルで利用されることを想定しているが、他のリソースでも利用可能である</t>
   </si>
   <si>
-    <t>点数表コード１桁（医科1、歯科 3）。Identifier型の拡張  
+    <t>点数表コード１桁（医科１、歯科３、調剤４、訪問看護ステーション６）。Identifier型の拡張  
 「OrganizationCategory」を使用する。systemには点数表番号を表すOID「1.2.392.100495.20.3.22」を指定する。</t>
   </si>
   <si>
@@ -486,13 +486,16 @@
 </t>
   </si>
   <si>
-    <t>保険医療機関番号７桁を表現するExtension【詳細参照】</t>
+    <t>医療機関コード（７桁）を表現するExtension【詳細参照】</t>
   </si>
   <si>
     <t>保険医療機関番号７桁を表現するためのExtension。 JP Core Organizationプロファイルで利用されることを想定しているが、他のリソースでも利用可能である</t>
   </si>
   <si>
-    <t>保険医療機関番号７桁。Identifier型の拡張「InsuranceOrganizationNo」を使用する。systemには医療機関コードを表すOID「1.2.392.100495.20.3.23」を指定する。</t>
+    <t>医療機関コード（７桁）。Identifier型の拡張「InsuranceOrganizationNo」を使用する。  
+systemには医療機関コードを表すOID「1.2.392.100495.20.3.23」を指定する。  
+`医療機関コード（７桁）`の詳しい説明は、[こちらのリンク](StructureDefinition-jp-organization.html#医療機関コード１０桁)を参照すること。
+保険医療機関・薬局、訪問看護ステーション等でない場合は、本拡張は使用しない。</t>
   </si>
   <si>
     <t>Organization.modifierExtension</t>
@@ -532,9 +535,7 @@
 複数の異種システムにまたがって組織を識別するための識別子</t>
   </si>
   <si>
-    <t>もし適切なOID が存在しない場合で、その医療施設が保険医療機関の場合、特定健診・特定保健指導機関のルールに従い以下のルールで設定してもよい。
-医療施設が固有のOID を持っている場合は、そのOID を指定する。医療施設が保険医療機関の場合、特定健診・特定保健指導機関の医療機関コードの OID「1.2.392.200119.6.102.」の末尾に「[1]＋医療機関コード（10 桁）」を指定する。医療機関コードを持たない場合、「[9]＋当該施設の電話番号下 9 桁」を医療機関コードとする。
-例：医療機関コード「1312345670」の場合「1.2.392.200119.6.102.11312345670」</t>
+    <t>福祉医療関連施設と保険者組織はSlicingについてはJP Coreにて定義を行なっているため、定義に従いデータを格納すること。それ以外の組織については、利用する際には必要に応じて識別子を定義を行なうこと。</t>
   </si>
   <si>
     <t>Organizations are known by a variety of ids. Some institutions maintain several, and most collect identifiers for exchange with other organizations concerning the organization.
@@ -772,16 +773,15 @@
     <t>medicalInstitutionCode</t>
   </si>
   <si>
-    <t>Identifies this organization  across multiple systems</t>
-  </si>
-  <si>
-    <t>Identifier for the organization that is used to identify the organization across multiple disparate systems.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">福祉医療施設を区別するため医療機関機関コード（１０桁）を格納するためのIdentifier/Slicing定義。  
-systemはFixed Valueの```http://jpfhir.jp/fhir/Common/IdSystem/insurance-medical-institution-no```を使用する。　　
-valueは医療機関コード（１０桁）を使用する。 
-医療機関コード（１０桁）の詳細については[こちらのリンク](StructureDefinition-jp-organization.html#医療機関コード（１０桁）)を参照すること。 </t>
+    <t>施設が福祉医療関連機関である場合に利用する識別子【詳細参照】</t>
+  </si>
+  <si>
+    <t>福祉医療施設を区別するため医療機関機関コード（１０桁）を格納するためのIdentifier/Slicing定義。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">systemはFixed Valueの```http://jpfhir.jp/fhir/Common/IdSystem/insurance-medical-institution-no```を使用する。　
+value : ```医療機関コード（１０桁）```を使用する。 
+医療機関コード（１０桁）の詳細は[こちらのリンク](StructureDefinition-jp-organization.html#医療機関機関コード１０桁)を参照すること。 </t>
   </si>
   <si>
     <t>Organizations are known by a variety of ids. Some institutions maintain several, and most collect identifiers for exchange with other organizations concerning the organization.</t>
@@ -795,6 +795,12 @@
   </si>
   <si>
     <t>insurerNumber</t>
+  </si>
+  <si>
+    <t>Identifies this organization  across multiple systems</t>
+  </si>
+  <si>
+    <t>Identifier for the organization that is used to identify the organization across multiple disparate systems.</t>
   </si>
   <si>
     <t>健康保険組合などの保険者の保険者番号を表現する際のIdentifier表現に使用する
@@ -5022,13 +5028,13 @@
         <v>161</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="N32" t="s" s="2">
         <v>244</v>
@@ -5597,7 +5603,7 @@
       </c>
       <c r="P37" s="2"/>
       <c r="Q37" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="R37" t="s" s="2">
         <v>76</v>
@@ -5999,7 +6005,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6022,70 +6028,70 @@
         <v>86</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="L41" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="O41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P41" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="Q41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE41" t="s" s="2">
         <v>252</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="O41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P41" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="Q41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE41" t="s" s="2">
-        <v>250</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>77</v>
@@ -6100,21 +6106,21 @@
         <v>97</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6140,16 +6146,16 @@
         <v>194</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>76</v>
@@ -6174,13 +6180,13 @@
         <v>76</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>76</v>
@@ -6198,7 +6204,7 @@
         <v>76</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>77</v>
@@ -6213,21 +6219,21 @@
         <v>97</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>177</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6253,16 +6259,16 @@
         <v>173</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>76</v>
@@ -6311,7 +6317,7 @@
         <v>76</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>77</v>
@@ -6326,13 +6332,13 @@
         <v>97</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>76</v>
@@ -6340,7 +6346,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6366,16 +6372,16 @@
         <v>173</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>76</v>
@@ -6424,7 +6430,7 @@
         <v>76</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>77</v>
@@ -6442,7 +6448,7 @@
         <v>76</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>76</v>
@@ -6453,7 +6459,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6476,19 +6482,19 @@
         <v>76</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>76</v>
@@ -6537,7 +6543,7 @@
         <v>76</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>77</v>
@@ -6546,19 +6552,19 @@
         <v>78</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>76</v>
@@ -6566,7 +6572,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6589,19 +6595,19 @@
         <v>76</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>76</v>
@@ -6650,7 +6656,7 @@
         <v>76</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>77</v>
@@ -6659,19 +6665,19 @@
         <v>78</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>76</v>
@@ -6679,7 +6685,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6705,16 +6711,16 @@
         <v>232</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>76</v>
@@ -6763,7 +6769,7 @@
         <v>76</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>77</v>
@@ -6778,10 +6784,10 @@
         <v>97</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>177</v>
@@ -6792,7 +6798,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6815,19 +6821,19 @@
         <v>76</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>76</v>
@@ -6876,7 +6882,7 @@
         <v>76</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>77</v>
@@ -6894,7 +6900,7 @@
         <v>76</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>76</v>
@@ -6905,7 +6911,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7014,7 +7020,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7125,11 +7131,11 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
@@ -7151,10 +7157,10 @@
         <v>130</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="M51" t="s" s="2">
         <v>157</v>
@@ -7209,7 +7215,7 @@
         <v>76</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>77</v>
@@ -7238,7 +7244,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7264,14 +7270,14 @@
         <v>194</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>76</v>
@@ -7299,10 +7305,10 @@
         <v>199</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>76</v>
@@ -7320,7 +7326,7 @@
         <v>76</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>77</v>
@@ -7338,7 +7344,7 @@
         <v>76</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>76</v>
@@ -7349,7 +7355,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7372,19 +7378,19 @@
         <v>76</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>76</v>
@@ -7433,7 +7439,7 @@
         <v>76</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>77</v>
@@ -7448,13 +7454,13 @@
         <v>97</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>76</v>
@@ -7462,7 +7468,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7485,17 +7491,17 @@
         <v>76</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" t="s" s="2">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>76</v>
@@ -7544,7 +7550,7 @@
         <v>76</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>77</v>
@@ -7559,10 +7565,10 @@
         <v>97</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>76</v>
@@ -7573,7 +7579,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7596,17 +7602,17 @@
         <v>76</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" t="s" s="2">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>76</v>
@@ -7655,7 +7661,7 @@
         <v>76</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>77</v>
@@ -7670,10 +7676,10 @@
         <v>97</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>76</v>
@@ -7684,7 +7690,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7707,19 +7713,19 @@
         <v>76</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>76</v>
@@ -7768,7 +7774,7 @@
         <v>76</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>77</v>

--- a/jpcore-r4/feature/swg3-医療機関コード説明見直し/StructureDefinition-jp-organization.xlsx
+++ b/jpcore-r4/feature/swg3-医療機関コード説明見直し/StructureDefinition-jp-organization.xlsx
@@ -469,13 +469,13 @@
 </t>
   </si>
   <si>
-    <t>点数表コード１桁（医科１、歯科３、調剤４、訪問看護ステーション６）を表現するExtension【詳細参照】</t>
+    <t>点数表コード１桁（医科１、非保険検診施設２、歯科３、調剤４、訪問看護ステーション６）を表現するExtension【詳細参照】</t>
   </si>
   <si>
     <t>点数表コード１桁（医科１、歯科３）表現するためのExtension。 JP Core Organizationプロファイルで利用されることを想定しているが、他のリソースでも利用可能である</t>
   </si>
   <si>
-    <t>点数表コード１桁（医科１、歯科３、調剤４、訪問看護ステーション６）。Identifier型の拡張  
+    <t>点数表コード１桁（医科１、非保険検診施設２、歯科３、調剤４、訪問看護ステーション６）。Identifier型の拡張  
 「OrganizationCategory」を使用する。systemには点数表番号を表すOID「1.2.392.100495.20.3.22」を指定する。</t>
   </si>
   <si>
@@ -493,9 +493,12 @@
   </si>
   <si>
     <t>医療機関コード（７桁）。Identifier型の拡張「InsuranceOrganizationNo」を使用する。  
-systemには医療機関コードを表すOID「1.2.392.100495.20.3.23」を指定する。  
-`医療機関コード（７桁）`の詳しい説明は、[こちらのリンク](StructureDefinition-jp-organization.html#医療機関コード１０桁)を参照すること。
-保険医療機関・薬局、訪問看護ステーション等でない場合は、本拡張は使用しない。</t>
+systemには医療機関コードを表すOID「1.2.392.100495.20.3.23」を指定する。
+valueには下記の値を格納する。  
+- 保険医療機関・保険薬局 : `医療機関コード（７桁）`
+- 非保険の特定健診・特定保健指導機関 : `機関コード（７桁）`
+医療機関コードの詳しい説明は、[こちらのリンク](StructureDefinition-jp-organization.html#医療機関コード１０桁)を参照すること。  
+なお上記に該当しない施設は、本拡張は使用しない。</t>
   </si>
   <si>
     <t>Organization.modifierExtension</t>
@@ -776,12 +779,12 @@
     <t>施設が福祉医療関連機関である場合に利用する識別子【詳細参照】</t>
   </si>
   <si>
-    <t>福祉医療施設を区別するため医療機関機関コード（１０桁）を格納するためのIdentifier/Slicing定義。</t>
+    <t>福祉医療施設を区別するため医療機関コード（１０桁）を格納するためのIdentifier/Slicing定義。</t>
   </si>
   <si>
     <t xml:space="preserve">systemはFixed Valueの```http://jpfhir.jp/fhir/Common/IdSystem/insurance-medical-institution-no```を使用する。　
 value : ```医療機関コード（１０桁）```を使用する。 
-医療機関コード（１０桁）の詳細は[こちらのリンク](StructureDefinition-jp-organization.html#医療機関機関コード１０桁)を参照すること。 </t>
+医療機関コード（１０桁）の詳細は[こちらのリンク](StructureDefinition-jp-organization.html#医療機関コード１０桁)を参照すること。 </t>
   </si>
   <si>
     <t>Organizations are known by a variety of ids. Some institutions maintain several, and most collect identifiers for exchange with other organizations concerning the organization.</t>

--- a/jpcore-r4/feature/swg3-医療機関コード説明見直し/StructureDefinition-jp-organization.xlsx
+++ b/jpcore-r4/feature/swg3-医療機関コード説明見直し/StructureDefinition-jp-organization.xlsx
@@ -790,7 +790,7 @@
     <t>Organizations are known by a variety of ids. Some institutions maintain several, and most collect identifiers for exchange with other organizations concerning the organization.</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/IdSystem/insurance-medical-institution-no</t>
+    <t>http://jpfhir.jp/fhir/core/IdSystem/insurance-medical-institution-no</t>
   </si>
   <si>
     <t xml:space="preserve">Reference(Organization)
